--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="0" windowWidth="25380" windowHeight="13820" tabRatio="862"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="项目概览" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="288">
   <si>
     <t>项目名称</t>
   </si>
@@ -1211,6 +1211,14 @@
   </si>
   <si>
     <t>正在确定培训事宜，升级和扩容放在培训之后，应该可以追加新的合同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实施</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.01</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1867,6 +1875,9 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,9 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="113">
@@ -2375,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2426,7 +2434,7 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -2443,36 +2451,36 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="35" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2542,7 +2550,7 @@
       <c r="E7" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="34" t="s">
         <v>285</v>
       </c>
       <c r="G7" s="9"/>
@@ -2691,9 +2699,11 @@
         <v>157</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="29"/>
+        <v>286</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>287</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -2923,22 +2933,22 @@
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
@@ -2954,16 +2964,16 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="14">
         <v>13426056754</v>
       </c>
@@ -2979,8 +2989,8 @@
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="40"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="32" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -3838,13 +3848,13 @@
       <c r="F1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -3861,13 +3871,13 @@
         <v>192</v>
       </c>
       <c r="F2" s="31"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="42" customHeight="1">
       <c r="A3" s="16" t="s">
@@ -3959,10 +3969,10 @@
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="17">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -3984,8 +3994,8 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="17">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="18" t="s">
         <v>215</v>
       </c>
@@ -4005,8 +4015,8 @@
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="17">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="18" t="s">
         <v>216</v>
       </c>
@@ -4026,8 +4036,8 @@
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="17">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="18" t="s">
         <v>217</v>
       </c>
@@ -4047,8 +4057,8 @@
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="17">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="18" t="s">
         <v>218</v>
       </c>
@@ -4068,8 +4078,8 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="17">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="18" t="s">
         <v>219</v>
       </c>
@@ -4089,8 +4099,8 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="18" t="s">
         <v>222</v>
       </c>
@@ -4110,8 +4120,8 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="34">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="18" t="s">
         <v>223</v>
       </c>
@@ -4131,10 +4141,10 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="17">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>228</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -4154,8 +4164,8 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="17">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="18" t="s">
         <v>215</v>
       </c>
@@ -4173,8 +4183,8 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="17">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="18" t="s">
         <v>216</v>
       </c>
@@ -4192,8 +4202,8 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="119">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="18" t="s">
         <v>217</v>
       </c>
@@ -4213,8 +4223,8 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="17">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="18" t="s">
         <v>234</v>
       </c>
@@ -4232,8 +4242,8 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="17">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="18" t="s">
         <v>236</v>
       </c>
@@ -4253,8 +4263,8 @@
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="17">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="18" t="s">
         <v>238</v>
       </c>
@@ -4272,8 +4282,8 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="18" t="s">
         <v>239</v>
       </c>
@@ -4293,10 +4303,10 @@
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -4316,8 +4326,8 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="17">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="18" t="s">
         <v>247</v>
       </c>
@@ -4337,8 +4347,8 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="17">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="18" t="s">
         <v>223</v>
       </c>
@@ -4356,8 +4366,8 @@
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" ht="51">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="18" t="s">
         <v>252</v>
       </c>
